--- a/Data/Input/Country_CarbonPrice/ZoneB2.xlsx
+++ b/Data/Input/Country_CarbonPrice/ZoneB2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="OtherPolicy" sheetId="8" r:id="rId1"/>
+    <sheet name="Policy" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -114,7 +114,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,7 +419,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
